--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maythawee\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hitachigroup-my.sharepoint.com/personal/maythawee_lumduannaimuang_ck_hitachiastemo_com/Documents/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A422FBF7-F83A-4A4A-AB60-EAE2E5D9FB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{A422FBF7-F83A-4A4A-AB60-EAE2E5D9FB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E68F5B-43DE-4BFD-8EF0-E1D25E339652}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>UserID</t>
   </si>
@@ -47,38 +47,35 @@
     <t>Month</t>
   </si>
   <si>
-    <t>HashedPassword</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>2025-02</t>
   </si>
   <si>
-    <t>scrypt:32768:8:1$RCox3Ogr8Uw6447l$ea6ebcd75fc3629677db0bae89eb2af9cfe8e2f15e3187602e53fb5a1e62c9eec986bd42c119edef81b334c3127bea8649e8ba0dddef395031babdc4b77de199</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>scrypt:32768:8:1$6N6gTurEeGGFWDUv$c88e0d8878ed8520b6862bb861fbdacd431909c9742ca079efb71cbdf1d95229bfdb2b79042945789a0df999373454bc9f7f73f74f504b32ca9a7cd0470621db</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>scrypt:32768:8:1$CQNP6atZmeSQbXV9$189e6b2e3dda852946af0dc1383a7bc3896acec7e04d912927edf7c7265e74e73176a97f044125a607e36a3ea355e53e15569a0710e786701ef27c5458cd4263</t>
+    <t>maythawee</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Maymys@393833</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Admin@393833</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +87,14 @@
       <b/>
       <sz val="11"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,16 +129,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,15 +443,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="164.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -459,61 +472,54 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>30000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
         <v>35000</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{64CD1EF4-AD38-450F-8B95-090D94131172}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{D6D4F376-2D32-4D95-8C8C-3E0FC05F1057}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f54277c9-dafe-44aa-85a4-73d5c7c52450}" enabled="0" method="" siteId="{f54277c9-dafe-44aa-85a4-73d5c7c52450}" removed="1"/>
+</clbl:labelList>
 </file>